--- a/testFile/case/userLoginCase.xlsx
+++ b/testFile/case/userLoginCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="loginTest" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>case_name</t>
   </si>
@@ -52,35 +52,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>getSuccess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getFailure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginname=17644444444&amp;loginpwd=vip17644444544&amp;userFlage=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginname=17644444445&amp;loginpwd=&amp;userFlage=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>loginname=17644444444&amp;loginpwd=vip17644444444&amp;userFlage=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>loginname=17644444444&amp;loginpwd=vip17644444544&amp;userFlage=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginname=17644444445&amp;loginpwd=vip17644444444&amp;userFlage=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getSuccess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getFailure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/news/getNews</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page=0&amp;pageSize=0&amp;wmRead=string</t>
+    <t>/todo/getTodoList</t>
+  </si>
+  <si>
+    <t>/todo/getTodoList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -463,7 +466,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -477,7 +480,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -491,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -508,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -536,30 +539,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/testFile/case/userLoginCase.xlsx
+++ b/testFile/case/userLoginCase.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="loginTest" sheetId="1" r:id="rId1"/>
     <sheet name="news" sheetId="2" r:id="rId2"/>
+    <sheet name="vipList" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>case_name</t>
   </si>
@@ -24,66 +25,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getSuccess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getFailure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginname=17644444444&amp;loginpwd=vip17644444444&amp;userFlage=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/todo/getTodoList</t>
+  </si>
+  <si>
+    <t>/todo/getTodoList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginname=17644444444&amp;loginpwd=vip176444444454&amp;userFlage=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>query</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>login_error</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>login_null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getSuccess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getFailure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginname=17644444444&amp;loginpwd=vip17644444544&amp;userFlage=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginname=17644444445&amp;loginpwd=&amp;userFlage=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginname=17644444444&amp;loginpwd=vip17644444444&amp;userFlage=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/todo/getTodoList</t>
-  </si>
-  <si>
-    <t>/todo/getTodoList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
+    <t>正常登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get请求正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post请求报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误密码登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTime=string&amp;email=string&amp;endTime=string&amp;page=1&amp;searchWord=string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常获取会员列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vipList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>returnCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>returnCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -442,62 +483,68 @@
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="15.875" customWidth="1"/>
     <col min="3" max="3" width="59.75" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -509,10 +556,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -521,42 +568,126 @@
     <col min="2" max="2" width="24.625" customWidth="1"/>
     <col min="3" max="3" width="41.375" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="25.25" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="75.25" customWidth="1"/>
+    <col min="5" max="5" width="41.875" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
